--- a/Tables replicated/Table3.4.xlsx
+++ b/Tables replicated/Table3.4.xlsx
@@ -413,384 +413,384 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.453397432586793</v>
+        <v>0.440608336953331</v>
       </c>
       <c r="B2" t="n">
-        <v>0.425450032341734</v>
+        <v>0.536356894546679</v>
       </c>
       <c r="C2" t="n">
-        <v>0.577547052498221</v>
+        <v>0.351448289118218</v>
       </c>
       <c r="D2" t="n">
-        <v>0.518888565165423</v>
+        <v>0.332794089813218</v>
       </c>
       <c r="E2" t="n">
-        <v>0.476614990360648</v>
+        <v>0.448139446946094</v>
       </c>
       <c r="F2" t="n">
-        <v>0.598071342913107</v>
+        <v>0.36033983275684</v>
       </c>
       <c r="G2" t="n">
-        <v>0.677857669546626</v>
+        <v>0.621299546526483</v>
       </c>
       <c r="H2" t="n">
-        <v>0.527474932950213</v>
+        <v>0.516330106380677</v>
       </c>
       <c r="I2" t="n">
-        <v>0.35787527842815</v>
+        <v>0.425059083057999</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0198060020190817</v>
+        <v>0.42971227085408</v>
       </c>
       <c r="K2" t="n">
-        <v>0.74504510212097</v>
+        <v>-0.345594842565841</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.24347633373797</v>
+        <v>1.41471451528567</v>
       </c>
       <c r="B3" t="n">
-        <v>1.79737643780613</v>
+        <v>1.75421207391929</v>
       </c>
       <c r="C3" t="n">
-        <v>2.34410255994572</v>
+        <v>1.11290223990632</v>
       </c>
       <c r="D3" t="n">
-        <v>1.93684113811459</v>
+        <v>1.01763993441687</v>
       </c>
       <c r="E3" t="n">
-        <v>1.59998730027967</v>
+        <v>1.46882034943507</v>
       </c>
       <c r="F3" t="n">
-        <v>1.87669731354625</v>
+        <v>1.17473312379601</v>
       </c>
       <c r="G3" t="n">
-        <v>1.96587663151457</v>
+        <v>1.98340074883906</v>
       </c>
       <c r="H3" t="n">
-        <v>1.40718960878052</v>
+        <v>1.66312172422703</v>
       </c>
       <c r="I3" t="n">
-        <v>0.820737135999543</v>
+        <v>1.30943866473279</v>
       </c>
       <c r="J3" t="n">
-        <v>0.033054746087439</v>
+        <v>1.31237371796039</v>
       </c>
       <c r="K3" t="n">
-        <v>1.51874401157463</v>
+        <v>-0.131130335402697</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="B4" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="C4" t="n">
-        <v>0.55</v>
+        <v>0.29</v>
       </c>
       <c r="D4" t="n">
-        <v>0.47</v>
+        <v>0.29</v>
       </c>
       <c r="E4" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="F4" t="n">
-        <v>0.55</v>
+        <v>0.31</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="H4" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="I4" t="n">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.18</v>
+        <v>0.34</v>
       </c>
       <c r="K4" t="n">
-        <v>0.91</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.15</v>
+        <v>1.19</v>
       </c>
       <c r="B5" t="n">
-        <v>1.77</v>
+        <v>1.51</v>
       </c>
       <c r="C5" t="n">
-        <v>2.19</v>
+        <v>0.9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.74</v>
+        <v>0.86</v>
       </c>
       <c r="E5" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="F5" t="n">
-        <v>1.69</v>
+        <v>0.98</v>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="H5" t="n">
-        <v>1.12</v>
+        <v>1.43</v>
       </c>
       <c r="I5" t="n">
-        <v>0.59</v>
+        <v>1.02</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>1.84</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="B6" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="C6" t="n">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
       <c r="D6" t="n">
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
       <c r="E6" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="F6" t="n">
-        <v>0.52</v>
+        <v>0.28</v>
       </c>
       <c r="G6" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="I6" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.22</v>
+        <v>0.32</v>
       </c>
       <c r="K6" t="n">
-        <v>0.87</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.12</v>
+        <v>1.12</v>
       </c>
       <c r="B7" t="n">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="C7" t="n">
-        <v>2.14</v>
+        <v>0.82</v>
       </c>
       <c r="D7" t="n">
-        <v>1.68</v>
+        <v>0.79</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="F7" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.61</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.64</v>
-      </c>
       <c r="H7" t="n">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.37</v>
+        <v>0.96</v>
       </c>
       <c r="K7" t="n">
-        <v>1.78</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="B8" t="n">
         <v>0.48</v>
       </c>
       <c r="C8" t="n">
-        <v>0.59</v>
+        <v>0.31</v>
       </c>
       <c r="D8" t="n">
-        <v>0.53</v>
+        <v>0.3</v>
       </c>
       <c r="E8" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.58</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.64</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="I8" t="n">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.18</v>
+        <v>0.36</v>
       </c>
       <c r="K8" t="n">
-        <v>0.94</v>
+        <v>-1.51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.28</v>
+        <v>1.22</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="C9" t="n">
-        <v>2.38</v>
+        <v>0.96</v>
       </c>
       <c r="D9" t="n">
-        <v>1.97</v>
+        <v>0.89</v>
       </c>
       <c r="E9" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.07</v>
       </c>
       <c r="G9" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H9" t="n">
-        <v>1.14</v>
+        <v>1.47</v>
       </c>
       <c r="I9" t="n">
-        <v>0.54</v>
+        <v>1.07</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.3</v>
+        <v>1.07</v>
       </c>
       <c r="K9" t="n">
-        <v>1.88</v>
+        <v>-0.56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="B10" t="n">
-        <v>0.39</v>
+        <v>0.5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.47</v>
+        <v>0.31</v>
       </c>
       <c r="D10" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.46</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.49</v>
-      </c>
       <c r="I10" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02</v>
+        <v>0.35</v>
       </c>
       <c r="K10" t="n">
-        <v>0.68</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.81</v>
       </c>
-      <c r="B11" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.7</v>
-      </c>
       <c r="H11" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="I11" t="n">
-        <v>0.71</v>
+        <v>1.02</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04</v>
+        <v>1.02</v>
       </c>
       <c r="K11" t="n">
-        <v>1.32</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="B12" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="C12" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="D12" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="E12" t="n">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G12" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="H12" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="I12" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="J12" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -798,107 +798,107 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.013</v>
+        <v>0.08</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C13" t="n">
-        <v>0.035</v>
+        <v>0.08</v>
       </c>
       <c r="D13" t="n">
-        <v>0.056</v>
+        <v>0.06</v>
       </c>
       <c r="E13" t="n">
-        <v>0.069</v>
+        <v>0.08</v>
       </c>
       <c r="F13" t="n">
-        <v>0.061</v>
+        <v>0.07</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H13" t="n">
-        <v>0.124</v>
+        <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>0.121</v>
+        <v>0.11</v>
       </c>
       <c r="J13" t="n">
-        <v>0.251</v>
+        <v>0.11</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.206</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.54</v>
+        <v>19.33</v>
       </c>
       <c r="B14" t="n">
-        <v>14.69</v>
+        <v>18.98</v>
       </c>
       <c r="C14" t="n">
-        <v>15.29</v>
+        <v>19.6</v>
       </c>
       <c r="D14" t="n">
-        <v>16.63</v>
+        <v>20.3</v>
       </c>
       <c r="E14" t="n">
-        <v>18.49</v>
+        <v>18.94</v>
       </c>
       <c r="F14" t="n">
-        <v>19.78</v>
+        <v>19.04</v>
       </c>
       <c r="G14" t="n">
-        <v>21.4</v>
+        <v>19.44</v>
       </c>
       <c r="H14" t="n">
-        <v>23.26</v>
+        <v>19.27</v>
       </c>
       <c r="I14" t="n">
-        <v>27.06</v>
+        <v>20.15</v>
       </c>
       <c r="J14" t="n">
-        <v>37.19</v>
+        <v>20.32</v>
       </c>
       <c r="K14" t="n">
-        <v>30.45</v>
+        <v>163.57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="C15" t="n">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
       <c r="D15" t="n">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="E15" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="F15" t="n">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
       <c r="G15" t="n">
         <v>0.38</v>
       </c>
       <c r="H15" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="I15" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="K15" t="n">
-        <v>0.29</v>
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>

--- a/Tables replicated/Table3.4.xlsx
+++ b/Tables replicated/Table3.4.xlsx
@@ -413,384 +413,384 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.440608336953331</v>
+        <v>0.456796770062857</v>
       </c>
       <c r="B2" t="n">
-        <v>0.536356894546679</v>
+        <v>0.418950210370174</v>
       </c>
       <c r="C2" t="n">
-        <v>0.351448289118218</v>
+        <v>0.555345566258393</v>
       </c>
       <c r="D2" t="n">
-        <v>0.332794089813218</v>
+        <v>0.542385334813424</v>
       </c>
       <c r="E2" t="n">
-        <v>0.448139446946094</v>
+        <v>0.483414612111501</v>
       </c>
       <c r="F2" t="n">
-        <v>0.36033983275684</v>
+        <v>0.608626830003331</v>
       </c>
       <c r="G2" t="n">
-        <v>0.621299546526483</v>
+        <v>0.617036099749395</v>
       </c>
       <c r="H2" t="n">
-        <v>0.516330106380677</v>
+        <v>0.534366249402221</v>
       </c>
       <c r="I2" t="n">
-        <v>0.425059083057999</v>
+        <v>0.323873769029344</v>
       </c>
       <c r="J2" t="n">
-        <v>0.42971227085408</v>
+        <v>-0.0193846624297911</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.345594842565841</v>
+        <v>0.743861635381122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.41471451528567</v>
+        <v>2.27461128168701</v>
       </c>
       <c r="B3" t="n">
-        <v>1.75421207391929</v>
+        <v>1.77338125628406</v>
       </c>
       <c r="C3" t="n">
-        <v>1.11290223990632</v>
+        <v>2.24222331569736</v>
       </c>
       <c r="D3" t="n">
-        <v>1.01763993441687</v>
+        <v>2.02190405664023</v>
       </c>
       <c r="E3" t="n">
-        <v>1.46882034943507</v>
+        <v>1.62398726431598</v>
       </c>
       <c r="F3" t="n">
-        <v>1.17473312379601</v>
+        <v>1.93547171407168</v>
       </c>
       <c r="G3" t="n">
-        <v>1.98340074883906</v>
+        <v>1.78584148271234</v>
       </c>
       <c r="H3" t="n">
-        <v>1.66312172422703</v>
+        <v>1.41837054210163</v>
       </c>
       <c r="I3" t="n">
-        <v>1.30943866473279</v>
+        <v>0.733802889485095</v>
       </c>
       <c r="J3" t="n">
-        <v>1.31237371796039</v>
+        <v>-0.031706878074849</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.131130335402697</v>
+        <v>1.63048690407261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="B4" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="C4" t="n">
-        <v>0.29</v>
+        <v>0.53</v>
       </c>
       <c r="D4" t="n">
-        <v>0.29</v>
+        <v>0.49</v>
       </c>
       <c r="E4" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="F4" t="n">
-        <v>0.31</v>
+        <v>0.55</v>
       </c>
       <c r="G4" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="H4" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="I4" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="J4" t="n">
-        <v>0.34</v>
+        <v>-0.23</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.34</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.19</v>
+        <v>2.19</v>
       </c>
       <c r="B5" t="n">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9</v>
+        <v>2.11</v>
       </c>
       <c r="D5" t="n">
-        <v>0.86</v>
+        <v>1.81</v>
       </c>
       <c r="E5" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="F5" t="n">
-        <v>0.98</v>
+        <v>1.73</v>
       </c>
       <c r="G5" t="n">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="H5" t="n">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="I5" t="n">
-        <v>1.02</v>
+        <v>0.49</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>-0.37</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.5</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="B6" t="n">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="C6" t="n">
-        <v>0.26</v>
+        <v>0.51</v>
       </c>
       <c r="D6" t="n">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
       <c r="E6" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.28</v>
+        <v>0.52</v>
       </c>
       <c r="G6" t="n">
         <v>0.51</v>
       </c>
       <c r="H6" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="J6" t="n">
-        <v>0.32</v>
+        <v>-0.27</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.52</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.12</v>
+        <v>2.16</v>
       </c>
       <c r="B7" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="C7" t="n">
-        <v>0.82</v>
+        <v>2.06</v>
       </c>
       <c r="D7" t="n">
-        <v>0.79</v>
+        <v>1.75</v>
       </c>
       <c r="E7" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="F7" t="n">
-        <v>0.91</v>
+        <v>1.65</v>
       </c>
       <c r="G7" t="n">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="H7" t="n">
-        <v>1.36</v>
+        <v>1.06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.93</v>
+        <v>0.41</v>
       </c>
       <c r="J7" t="n">
-        <v>0.96</v>
+        <v>-0.44</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.57</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="B8" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="C8" t="n">
-        <v>0.31</v>
+        <v>0.57</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="E8" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="F8" t="n">
-        <v>0.33</v>
+        <v>0.58</v>
       </c>
       <c r="G8" t="n">
         <v>0.58</v>
       </c>
       <c r="H8" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="I8" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="J8" t="n">
-        <v>0.36</v>
+        <v>-0.24</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.51</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.22</v>
+        <v>2.31</v>
       </c>
       <c r="B9" t="n">
-        <v>1.56</v>
+        <v>1.96</v>
       </c>
       <c r="C9" t="n">
-        <v>0.96</v>
+        <v>2.28</v>
       </c>
       <c r="D9" t="n">
-        <v>0.89</v>
+        <v>2.03</v>
       </c>
       <c r="E9" t="n">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="F9" t="n">
-        <v>1.07</v>
+        <v>1.83</v>
       </c>
       <c r="G9" t="n">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="H9" t="n">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="I9" t="n">
-        <v>1.07</v>
+        <v>0.45</v>
       </c>
       <c r="J9" t="n">
-        <v>1.07</v>
+        <v>-0.39</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.56</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="C10" t="n">
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
       <c r="D10" t="n">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
       <c r="E10" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="F10" t="n">
-        <v>0.36</v>
+        <v>0.55</v>
       </c>
       <c r="G10" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="H10" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="I10" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="J10" t="n">
-        <v>0.35</v>
+        <v>-0.04</v>
       </c>
       <c r="K10" t="n">
-        <v>-1.95</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.16</v>
+        <v>1.83</v>
       </c>
       <c r="B11" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="C11" t="n">
-        <v>0.93</v>
+        <v>1.78</v>
       </c>
       <c r="D11" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="E11" t="n">
-        <v>1.19</v>
+        <v>1.44</v>
       </c>
       <c r="F11" t="n">
-        <v>1.11</v>
+        <v>1.66</v>
       </c>
       <c r="G11" t="n">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="H11" t="n">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="I11" t="n">
-        <v>1.02</v>
+        <v>0.72</v>
       </c>
       <c r="J11" t="n">
-        <v>1.02</v>
+        <v>-0.06</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="B12" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="C12" t="n">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="D12" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="E12" t="n">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="F12" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.13</v>
       </c>
-      <c r="H12" t="n">
-        <v>1.21</v>
-      </c>
       <c r="I12" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="J12" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -798,107 +798,107 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="D13" t="n">
         <v>0.06</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F13" t="n">
         <v>0.07</v>
       </c>
       <c r="G13" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I13" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="J13" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="K13" t="n">
-        <v>1.22</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>19.33</v>
+        <v>12.46</v>
       </c>
       <c r="B14" t="n">
-        <v>18.98</v>
+        <v>14.66</v>
       </c>
       <c r="C14" t="n">
-        <v>19.6</v>
+        <v>15.37</v>
       </c>
       <c r="D14" t="n">
-        <v>20.3</v>
+        <v>16.65</v>
       </c>
       <c r="E14" t="n">
-        <v>18.94</v>
+        <v>18.47</v>
       </c>
       <c r="F14" t="n">
-        <v>19.04</v>
+        <v>19.52</v>
       </c>
       <c r="G14" t="n">
-        <v>19.44</v>
+        <v>21.44</v>
       </c>
       <c r="H14" t="n">
-        <v>19.27</v>
+        <v>23.38</v>
       </c>
       <c r="I14" t="n">
-        <v>20.15</v>
+        <v>27.39</v>
       </c>
       <c r="J14" t="n">
-        <v>20.32</v>
+        <v>37.94</v>
       </c>
       <c r="K14" t="n">
-        <v>163.57</v>
+        <v>28.32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="B15" t="n">
         <v>0.34</v>
       </c>
       <c r="C15" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2</v>
+        <v>0.39</v>
       </c>
       <c r="E15" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="F15" t="n">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
       <c r="G15" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="H15" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.32</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-0.03</v>
       </c>
     </row>
   </sheetData>
